--- a/excel_bao_cao_thang.xlsx
+++ b/excel_bao_cao_thang.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="150" yWindow="630" windowWidth="23655" windowHeight="9150"/>
+    <workbookView xWindow="150" yWindow="630" windowWidth="23655" windowHeight="9150" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -626,7 +626,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AX19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="O1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5:AP37"/>
     </sheetView>
@@ -1458,8 +1458,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AR39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AI16" sqref="AI16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="15"/>
@@ -1496,8 +1496,8 @@
   <sheetData>
     <row r="1" spans="1:44" ht="45" customHeight="1">
       <c r="A1" s="4">
-        <f>+A14</f>
-        <v>0</v>
+        <f>IF(A14=0,-2,A14)</f>
+        <v>-2</v>
       </c>
       <c r="C1" s="10" t="s">
         <v>30</v>
